--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.1118076624949</v>
+        <v>364.0135469762558</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.0451446449851</v>
+        <v>498.0593941172093</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.2885554016918</v>
+        <v>450.525304573412</v>
       </c>
       <c r="AD2" t="n">
-        <v>312111.8076624949</v>
+        <v>364013.5469762558</v>
       </c>
       <c r="AE2" t="n">
-        <v>427045.1446449851</v>
+        <v>498059.3941172092</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.535728106636152e-06</v>
+        <v>4.286774177464046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.990451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>386288.5554016918</v>
+        <v>450525.3045734121</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.7828671076148</v>
+        <v>180.6119250253272</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.6219678991348</v>
+        <v>247.1212038553163</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.7569941207632</v>
+        <v>223.5363029962247</v>
       </c>
       <c r="AD3" t="n">
-        <v>159782.8671076148</v>
+        <v>180611.9250253272</v>
       </c>
       <c r="AE3" t="n">
-        <v>218621.9678991348</v>
+        <v>247121.2038553163</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950970443997278e-06</v>
+        <v>6.67931156772142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.128038194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>197756.9941207631</v>
+        <v>223536.3029962247</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.3293753943672</v>
+        <v>164.4874871535376</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.4271334913991</v>
+        <v>225.0590365991512</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.0165439091211</v>
+        <v>203.5797180185347</v>
       </c>
       <c r="AD4" t="n">
-        <v>133329.3753943672</v>
+        <v>164487.4871535376</v>
       </c>
       <c r="AE4" t="n">
-        <v>182427.1334913991</v>
+        <v>225059.0365991512</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.250208581696342e-06</v>
+        <v>7.185188486561298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.767795138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>165016.5439091211</v>
+        <v>203579.7180185347</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.8459952891333</v>
+        <v>261.1229258100049</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.1712337921348</v>
+        <v>357.2799070237007</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.332435339093</v>
+        <v>323.1816141428567</v>
       </c>
       <c r="AD2" t="n">
-        <v>220845.9952891333</v>
+        <v>261122.9258100049</v>
       </c>
       <c r="AE2" t="n">
-        <v>302171.2337921349</v>
+        <v>357279.9070237007</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.13546662693106e-06</v>
+        <v>5.429972908782559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>273332.435339093</v>
+        <v>323181.6141428567</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.4349567262616</v>
+        <v>156.62131940327</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.9938857094168</v>
+        <v>214.2961988524115</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.4835920558018</v>
+        <v>193.8440704006028</v>
       </c>
       <c r="AD3" t="n">
-        <v>126434.9567262616</v>
+        <v>156621.31940327</v>
       </c>
       <c r="AE3" t="n">
-        <v>172993.8857094168</v>
+        <v>214296.1988524115</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.323279477807384e-06</v>
+        <v>7.487016522503036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.848090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>156483.5920558017</v>
+        <v>193844.0704006028</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.9824758836991</v>
+        <v>157.1688385607075</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.7430255754628</v>
+        <v>215.0453387184575</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.161235064457</v>
+        <v>194.521713409258</v>
       </c>
       <c r="AD4" t="n">
-        <v>126982.4758836991</v>
+        <v>157168.8385607075</v>
       </c>
       <c r="AE4" t="n">
-        <v>173743.0255754628</v>
+        <v>215045.3387184576</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320285316287042e-06</v>
+        <v>7.481831260507157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>157161.235064457</v>
+        <v>194521.713409258</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5961687156556</v>
+        <v>152.9422655538013</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.8462189485907</v>
+        <v>209.2623550671703</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4454569998682</v>
+        <v>189.2906496011793</v>
       </c>
       <c r="AD2" t="n">
-        <v>125596.1687156556</v>
+        <v>152942.2655538013</v>
       </c>
       <c r="AE2" t="n">
-        <v>171846.2189485907</v>
+        <v>209262.3550671703</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.216187118246837e-06</v>
+        <v>7.977933307846544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155445.4569998682</v>
+        <v>189290.6496011793</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.6845204356289</v>
+        <v>148.6778715021246</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.4400821372038</v>
+        <v>203.4276229938813</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.505449736798</v>
+        <v>184.0127761678652</v>
       </c>
       <c r="AD2" t="n">
-        <v>129684.5204356289</v>
+        <v>148677.8715021246</v>
       </c>
       <c r="AE2" t="n">
-        <v>177440.0821372038</v>
+        <v>203427.6229938813</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.289709928407717e-06</v>
+        <v>7.814919872748577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.217013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>160505.449736798</v>
+        <v>184012.7761678652</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.3206391309743</v>
+        <v>147.31399019747</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.5739595659797</v>
+        <v>201.5615004226573</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.8174272846516</v>
+        <v>182.3247537157187</v>
       </c>
       <c r="AD3" t="n">
-        <v>128320.6391309743</v>
+        <v>147313.99019747</v>
       </c>
       <c r="AE3" t="n">
-        <v>175573.9595659797</v>
+        <v>201561.5004226573</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337860259775736e-06</v>
+        <v>7.902639319463485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.158420138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>158817.4272846516</v>
+        <v>182324.7537157187</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.7636463066364</v>
+        <v>162.0863448618174</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.7578103460175</v>
+        <v>221.7736877846996</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.02934563937</v>
+        <v>200.6079182839173</v>
       </c>
       <c r="AD2" t="n">
-        <v>135763.6463066364</v>
+        <v>162086.3448618174</v>
       </c>
       <c r="AE2" t="n">
-        <v>185757.8103460175</v>
+        <v>221773.6877846996</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.987543192917993e-06</v>
+        <v>7.814299869837657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.091579861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>168029.34563937</v>
+        <v>200607.9182839173</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.9748523355031</v>
+        <v>279.5923374409988</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.9759357916922</v>
+        <v>382.550570830161</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.7698113934384</v>
+        <v>346.0404812632279</v>
       </c>
       <c r="AD2" t="n">
-        <v>238974.8523355031</v>
+        <v>279592.3374409988</v>
       </c>
       <c r="AE2" t="n">
-        <v>326975.9357916922</v>
+        <v>382550.570830161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.970328165648533e-06</v>
+        <v>5.110393788480432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>295769.8113934384</v>
+        <v>346040.4812632279</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.280523196515</v>
+        <v>159.7223018119912</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.8873152915481</v>
+        <v>218.5390997897104</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.0054381830784</v>
+        <v>197.682034827396</v>
       </c>
       <c r="AD3" t="n">
-        <v>129280.523196515</v>
+        <v>159722.3018119912</v>
       </c>
       <c r="AE3" t="n">
-        <v>176887.3152915481</v>
+        <v>218539.0997897104</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.278987829245683e-06</v>
+        <v>7.361918146436879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.854600694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>160005.4381830784</v>
+        <v>197682.034827396</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.5153849965376</v>
+        <v>158.9571636120139</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.8404194508246</v>
+        <v>217.4922039489868</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.0584566120657</v>
+        <v>196.7350532563833</v>
       </c>
       <c r="AD4" t="n">
-        <v>128515.3849965376</v>
+        <v>158957.1636120139</v>
       </c>
       <c r="AE4" t="n">
-        <v>175840.4194508246</v>
+        <v>217492.2039489868</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.305406061190739e-06</v>
+        <v>7.407370218028159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.82421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>159058.4566120657</v>
+        <v>196735.0532563833</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.410548900493</v>
+        <v>164.3483162038281</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.3794192480313</v>
+        <v>224.8686167659698</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.3053132707368</v>
+        <v>203.4074715869762</v>
       </c>
       <c r="AD2" t="n">
-        <v>138410.548900493</v>
+        <v>164348.3162038281</v>
       </c>
       <c r="AE2" t="n">
-        <v>189379.4192480313</v>
+        <v>224868.6167659698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.778134354516657e-06</v>
+        <v>7.573876237993923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>171305.3132707368</v>
+        <v>203407.4715869762</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.3722147440301</v>
+        <v>193.8149699769746</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.9013158030034</v>
+        <v>265.1861924353852</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.4370498738086</v>
+        <v>239.8771944205883</v>
       </c>
       <c r="AD2" t="n">
-        <v>164372.2147440301</v>
+        <v>193814.9699769746</v>
       </c>
       <c r="AE2" t="n">
-        <v>224901.3158030034</v>
+        <v>265186.1924353853</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694433506215049e-06</v>
+        <v>6.543116261407481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>203437.0498738086</v>
+        <v>239877.1944205883</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.3530904911848</v>
+        <v>151.7105048695577</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.4088962473585</v>
+        <v>207.5770057575428</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.4316261494186</v>
+        <v>187.7661476642595</v>
       </c>
       <c r="AD3" t="n">
-        <v>122353.0904911848</v>
+        <v>151710.5048695577</v>
       </c>
       <c r="AE3" t="n">
-        <v>167408.8962473585</v>
+        <v>207577.0057575428</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.349330931249425e-06</v>
+        <v>7.702988264540749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>151431.6261494186</v>
+        <v>187766.1476642595</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.9984076453047</v>
+        <v>233.9197313807606</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.1196211147501</v>
+        <v>320.0592962852202</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.480836222489</v>
+        <v>289.5132862538974</v>
       </c>
       <c r="AD2" t="n">
-        <v>203998.4076453047</v>
+        <v>233919.7313807606</v>
       </c>
       <c r="AE2" t="n">
-        <v>279119.6211147502</v>
+        <v>320059.2962852202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.312673504927453e-06</v>
+        <v>5.777013332578729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.38671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>252480.836222489</v>
+        <v>289513.2862538974</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.6597173071445</v>
+        <v>155.5809515340494</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.9331689350319</v>
+        <v>212.8727216359535</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.5241086016384</v>
+        <v>192.5564478518203</v>
       </c>
       <c r="AD3" t="n">
-        <v>125659.7173071445</v>
+        <v>155580.9515340494</v>
       </c>
       <c r="AE3" t="n">
-        <v>171933.1689350319</v>
+        <v>212872.7216359535</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.315689615161116e-06</v>
+        <v>7.526185846257533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>155524.1086016384</v>
+        <v>192556.4478518203</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.953953352304</v>
+        <v>330.3036546477015</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.3595467253545</v>
+        <v>451.9360322577914</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.6269864764948</v>
+        <v>408.8038916353121</v>
       </c>
       <c r="AD2" t="n">
-        <v>288953.9533523041</v>
+        <v>330303.6546477015</v>
       </c>
       <c r="AE2" t="n">
-        <v>395359.5467253545</v>
+        <v>451936.0322577914</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.675521562461197e-06</v>
+        <v>4.54820933230357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.634548611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>357626.9864764948</v>
+        <v>408803.8916353121</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.8330029190114</v>
+        <v>173.507943075261</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.1128571099237</v>
+        <v>237.401222345676</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.1554195191505</v>
+        <v>214.7439828797816</v>
       </c>
       <c r="AD3" t="n">
-        <v>152833.0029190115</v>
+        <v>173507.943075261</v>
       </c>
       <c r="AE3" t="n">
-        <v>209112.8571099237</v>
+        <v>237401.222345676</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056338768990821e-06</v>
+        <v>6.895507067839747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.034722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>189155.4195191505</v>
+        <v>214743.9828797816</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.0576279331844</v>
+        <v>162.9845630501605</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.6870725094715</v>
+        <v>223.0026695365798</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.4425519051172</v>
+        <v>201.7196077422851</v>
       </c>
       <c r="AD4" t="n">
-        <v>132057.6279331844</v>
+        <v>162984.5630501605</v>
       </c>
       <c r="AE4" t="n">
-        <v>180687.0725094715</v>
+        <v>223002.6695365797</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.259245114225136e-06</v>
+        <v>7.240434406840292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.796006944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>163442.5519051172</v>
+        <v>201719.6077422851</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.6278586223778</v>
+        <v>166.2817055052472</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.3085078796565</v>
+        <v>227.5139653032862</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3366081803259</v>
+        <v>205.800351772662</v>
       </c>
       <c r="AD2" t="n">
-        <v>137627.8586223778</v>
+        <v>166281.7055052472</v>
       </c>
       <c r="AE2" t="n">
-        <v>188308.5078796565</v>
+        <v>227513.9653032862</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.145814193034063e-06</v>
+        <v>7.475884055272535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.329861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>170336.6081803259</v>
+        <v>205800.351772662</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.8575278604117</v>
+        <v>149.0739100912704</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.6767985283404</v>
+        <v>203.9695004635398</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.7195742477982</v>
+        <v>184.5029376123495</v>
       </c>
       <c r="AD3" t="n">
-        <v>129857.5278604117</v>
+        <v>149073.9100912705</v>
       </c>
       <c r="AE3" t="n">
-        <v>177676.7985283404</v>
+        <v>203969.5004635398</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337634079074392e-06</v>
+        <v>7.821780702050045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.093315972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>160719.5742477982</v>
+        <v>184502.9376123495</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.3301603383454</v>
+        <v>153.9147296361815</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.8504986681794</v>
+        <v>210.5929233267697</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.3538896725351</v>
+        <v>190.4942302935472</v>
       </c>
       <c r="AD2" t="n">
-        <v>126330.1603383454</v>
+        <v>153914.7296361815</v>
       </c>
       <c r="AE2" t="n">
-        <v>172850.4986681794</v>
+        <v>210592.9233267697</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267868516519548e-06</v>
+        <v>7.962478458647902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.392795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>156353.8896725351</v>
+        <v>190494.2302935472</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9858160369206</v>
+        <v>152.8862839763983</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3793516035719</v>
+        <v>209.1857586032347</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9277082225145</v>
+        <v>189.2213633962578</v>
       </c>
       <c r="AD2" t="n">
-        <v>125985.8160369206</v>
+        <v>152886.2839763983</v>
       </c>
       <c r="AE2" t="n">
-        <v>172379.3516035719</v>
+        <v>209185.7586032347</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.120337237973921e-06</v>
+        <v>7.923561305593805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.779079861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>155927.7082225145</v>
+        <v>189221.3633962578</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.924482281651</v>
+        <v>186.3621570814688</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.2380232096717</v>
+        <v>254.9889250368597</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.2686399420103</v>
+        <v>230.65313991062</v>
       </c>
       <c r="AD2" t="n">
-        <v>152924.482281651</v>
+        <v>186362.1570814688</v>
       </c>
       <c r="AE2" t="n">
-        <v>209238.0232096717</v>
+        <v>254988.9250368597</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.438541978061005e-06</v>
+        <v>7.09233435042593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>189268.6399420103</v>
+        <v>230653.1399106201</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.1730578382901</v>
+        <v>218.8184844028314</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.83492346053</v>
+        <v>299.3971039500304</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.1320816426291</v>
+        <v>270.8230645556026</v>
       </c>
       <c r="AD2" t="n">
-        <v>189173.0578382901</v>
+        <v>218818.4844028314</v>
       </c>
       <c r="AE2" t="n">
-        <v>258834.92346053</v>
+        <v>299397.1039500305</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.489322442247681e-06</v>
+        <v>6.130601885020033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.124131944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>234132.0816426291</v>
+        <v>270823.0645556026</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.4379571237296</v>
+        <v>153.0832941797197</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.8932586349435</v>
+        <v>209.4553166548956</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.7743230740486</v>
+        <v>189.4651952057954</v>
       </c>
       <c r="AD3" t="n">
-        <v>123437.9571237296</v>
+        <v>153083.2941797197</v>
       </c>
       <c r="AE3" t="n">
-        <v>168893.2586349435</v>
+        <v>209455.3166548956</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.350697527686127e-06</v>
+        <v>7.644003930804196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.911024305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>152774.3230740486</v>
+        <v>189465.1952057954</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.457126176718</v>
+        <v>309.318161065788</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.3148835275219</v>
+        <v>423.2227541243814</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.2588665733313</v>
+        <v>382.8309684676157</v>
       </c>
       <c r="AD2" t="n">
-        <v>268457.126176718</v>
+        <v>309318.1610657881</v>
       </c>
       <c r="AE2" t="n">
-        <v>367314.8835275219</v>
+        <v>423222.7541243813</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.817628714025275e-06</v>
+        <v>4.817831097689638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.309027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>332258.8665733312</v>
+        <v>382830.9684676157</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.6067860296057</v>
+        <v>164.2951654922803</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.8066989610257</v>
+        <v>224.7958936175863</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.3598841830502</v>
+        <v>203.3416890338067</v>
       </c>
       <c r="AD3" t="n">
-        <v>133606.7860296057</v>
+        <v>164295.1654922803</v>
       </c>
       <c r="AE3" t="n">
-        <v>182806.6989610257</v>
+        <v>224795.8936175863</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.209361932397048e-06</v>
+        <v>7.197539803021586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.891493055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>165359.8841830502</v>
+        <v>203341.6890338067</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.3172303872275</v>
+        <v>161.0056098499022</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.3057838061736</v>
+        <v>220.2949784627342</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.2885300535016</v>
+        <v>199.2703349042582</v>
       </c>
       <c r="AD4" t="n">
-        <v>130317.2303872275</v>
+        <v>161005.6098499022</v>
       </c>
       <c r="AE4" t="n">
-        <v>178305.7838061736</v>
+        <v>220294.9784627341</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.280818029044664e-06</v>
+        <v>7.319721765050424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>161288.5300535016</v>
+        <v>199270.3349042582</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.256049599467</v>
+        <v>223.7750997326106</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.739011748196</v>
+        <v>306.1789637146665</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.8088323814343</v>
+        <v>276.9576731427037</v>
       </c>
       <c r="AD2" t="n">
-        <v>183256.049599467</v>
+        <v>223775.0997326105</v>
       </c>
       <c r="AE2" t="n">
-        <v>250739.011748196</v>
+        <v>306178.9637146664</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.858029583332349e-06</v>
+        <v>6.126073778245762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.2578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>226808.8323814343</v>
+        <v>276957.6731427037</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.1531757895241</v>
+        <v>145.9097532482337</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.9765847173609</v>
+        <v>199.6401614781512</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.3725036496546</v>
+        <v>180.5867846634595</v>
       </c>
       <c r="AD2" t="n">
-        <v>127153.1757895241</v>
+        <v>145909.7532482337</v>
       </c>
       <c r="AE2" t="n">
-        <v>173976.5847173608</v>
+        <v>199640.1614781512</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.30484254884892e-06</v>
+        <v>7.931381970499397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.269097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>157372.5036496546</v>
+        <v>180586.7846634595</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.7153897941214</v>
+        <v>146.4719672528309</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.7458307215817</v>
+        <v>200.4094074823721</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.0683338948765</v>
+        <v>181.2826149086814</v>
       </c>
       <c r="AD3" t="n">
-        <v>127715.3897941214</v>
+        <v>146471.9672528309</v>
       </c>
       <c r="AE3" t="n">
-        <v>174745.8307215817</v>
+        <v>200409.4074823721</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303901942319675e-06</v>
+        <v>7.929648966427184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.269097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>158068.3338948765</v>
+        <v>181282.6149086814</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.719902306774</v>
+        <v>179.8611950294807</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.2216196288422</v>
+        <v>246.0940219551297</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5401176853852</v>
+        <v>222.6071538949327</v>
       </c>
       <c r="AD2" t="n">
-        <v>150719.902306774</v>
+        <v>179861.1950294807</v>
       </c>
       <c r="AE2" t="n">
-        <v>206221.6196288422</v>
+        <v>246094.0219551297</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.910190237507398e-06</v>
+        <v>6.985269500346714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.583767361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>186540.1176853852</v>
+        <v>222607.1538949327</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.0973680975385</v>
+        <v>150.524986087894</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.3732026386673</v>
+        <v>205.9549266590741</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.2540759307542</v>
+        <v>186.2988775183457</v>
       </c>
       <c r="AD3" t="n">
-        <v>131097.3680975385</v>
+        <v>150524.986087894</v>
       </c>
       <c r="AE3" t="n">
-        <v>179373.2026386673</v>
+        <v>205954.9266590741</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.344175067522051e-06</v>
+        <v>7.760551727701202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>162254.0759307542</v>
+        <v>186298.8775183457</v>
       </c>
     </row>
   </sheetData>
